--- a/WangLu-807.xlsx
+++ b/WangLu-807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E21D1-298C-45A0-8851-A9B98C494ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F08A62-0751-43AB-B612-97756BF381B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="0" windowWidth="19890" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="10170" yWindow="165" windowWidth="10755" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>住宿类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,506 @@
   </si>
   <si>
     <t>countryside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confige</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lounge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roommate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residential college</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>girlfriend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlady</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-drinker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighbouring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-rise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-rise buildings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holly residents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suburb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outskirts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countryside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>urban area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common residents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studio apartment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounglow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffige</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrige</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruhouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cities expansion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acommodation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quite bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>honeymoon suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queen suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>king suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pesident suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedsite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bollying alley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eleven Lake Avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>streets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roads garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roads line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">residential college </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared sutial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of occupants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl friend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy friend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-smoker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighbour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall of residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bungalow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terraced house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>row house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city's expansion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roommates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honeymoon suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>King's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>President's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedsit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowling alley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Street</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Lake Avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University Drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Lane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boarding school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared social area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boyfriend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlord</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -458,15 +958,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
@@ -522,8 +1022,817 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="2"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/WangLu-807.xlsx
+++ b/WangLu-807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F08A62-0751-43AB-B612-97756BF381B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C35F8-8472-4546-832D-EDB1357B54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="165" windowWidth="10755" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="7425" yWindow="0" windowWidth="19140" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="657">
   <si>
     <t>住宿类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -572,6 +572,2086 @@
   </si>
   <si>
     <t>landlord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游场景词汇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">payable </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>living cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost of living</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover the cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional expense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>living expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortage of money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial shortage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free of charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial executive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial problems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial goals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have strong financial muscles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-term loans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out on loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholarship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellowship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheque</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">check in </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>printed card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card catalogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international student card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer sound card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book in advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spending plans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplementary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuff of purse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver cloth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student banking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union Bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chequebook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheque card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdraw cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banking center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money diary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller's check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australian dollars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money  lender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealthy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>savings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize giving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive prizes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensioners</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guided tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>package tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>touring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitch-hike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag-packer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farewell party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodbye party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special party hats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banquet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>look out point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">embassy </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>church</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist brochures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterfall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewpoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point of view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gardens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backyard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gardon tools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garden Hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contry music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countryside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>villages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planners</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>museums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public facility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>military museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>science museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialized museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parks </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round trip ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wretched boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety regulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening news</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evening News</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international evening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insurance </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>souvenir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertainment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreation therapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>families</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>child</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>childcare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>children's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>full name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>given name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother-in-law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother-in-law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passengers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>travelers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thieves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportaion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free transportation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rush hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic jam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic safety</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic rules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cab </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi stand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trolley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam engine ship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirvers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driving license</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver's license</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car rental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable car</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on foot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic lights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway rail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway tracks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground car park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground railway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheelchair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storehouse and temples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden tools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese Pagoda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazardous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel agency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossils</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book in advanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari zoo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-stop flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connecting flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>woods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lakes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occasions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport photos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date-line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>places</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergencies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency contact persojn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency telephone number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>central</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>downtown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildlife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient temple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atlas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map of cave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>road map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eastern beach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manmade dam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water skiing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's Park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossroads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clover-leaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic jam at junction 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size of population</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population of crocodiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapid population growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accidents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education exhibition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition of instruments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>altitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind tunnels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm badge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tube</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art gallery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>greyhound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>greyhound bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术场景</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -958,881 +3038,3651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D741"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B563" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B564" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B582" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B584" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B596" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B597" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B599" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B600" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B601" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B607" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B620" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B621" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B623" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B624" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B626" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B627" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B628" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B629" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B631" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B634" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B635" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B637" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B649" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B651" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B652" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B653" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B654" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B655" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B659" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B663" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
         <v>89</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B666" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B668" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
         <v>38</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B669" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B671" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
         <v>91</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B672" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
         <v>90</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B676" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B677" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
         <v>39</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B678" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B679" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B680" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B683" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B684" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B686" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B689" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
         <v>103</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B693" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
         <v>104</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B694" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B696" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
         <v>106</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B699" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="2"/>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B741" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/WangLu-807.xlsx
+++ b/WangLu-807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C35F8-8472-4546-832D-EDB1357B54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB937F-5B51-4824-8B61-BA94426786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="0" windowWidth="19140" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="5790" yWindow="0" windowWidth="11670" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="662">
   <si>
     <t>住宿类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2652,6 +2652,26 @@
   </si>
   <si>
     <t>学术场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linguistics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3038,15 +3058,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D741"/>
+  <dimension ref="A1:D836"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
@@ -3057,3632 +3077,3657 @@
         <v>656</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>657</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>231</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>307</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>343</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>345</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>348</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>349</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>351</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>352</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>357</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>368</v>
+        <v>275</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>372</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>406</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>407</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>410</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>416</v>
+        <v>323</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>420</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>426</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>436</v>
+        <v>344</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>440</v>
+        <v>348</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>453</v>
+        <v>361</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>454</v>
+        <v>362</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>457</v>
+        <v>365</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>458</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>465</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>466</v>
+        <v>377</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>497</v>
+        <v>409</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>515</v>
+        <v>426</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>535</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>536</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>537</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>538</v>
+        <v>453</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>539</v>
+        <v>454</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>540</v>
+        <v>455</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>542</v>
+        <v>457</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>543</v>
+        <v>459</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>544</v>
+        <v>460</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>511</v>
+        <v>329</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>545</v>
+        <v>461</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>546</v>
+        <v>462</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>547</v>
+        <v>463</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>548</v>
+        <v>464</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>550</v>
+        <v>466</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>551</v>
+        <v>467</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>552</v>
+        <v>468</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>553</v>
+        <v>469</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>554</v>
+        <v>470</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>555</v>
+        <v>471</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>556</v>
+        <v>404</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>557</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>558</v>
+        <v>473</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>559</v>
+        <v>474</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>560</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>563</v>
+        <v>479</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>564</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>565</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>566</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>567</v>
+        <v>483</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>568</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>569</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>572</v>
+        <v>488</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>573</v>
+        <v>489</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>574</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>575</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>577</v>
+        <v>493</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>578</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>579</v>
+        <v>495</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>580</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>581</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>582</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>585</v>
+        <v>500</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>586</v>
+        <v>501</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>589</v>
+        <v>504</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>590</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>591</v>
+        <v>506</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>592</v>
+        <v>507</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>595</v>
+        <v>511</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>596</v>
+        <v>512</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>384</v>
+        <v>514</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>598</v>
+        <v>515</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>602</v>
+        <v>520</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>604</v>
+        <v>523</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>605</v>
+        <v>524</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>315</v>
+        <v>533</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>613</v>
+        <v>534</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>614</v>
+        <v>397</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>615</v>
+        <v>421</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>616</v>
+        <v>420</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>617</v>
+        <v>422</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>618</v>
+        <v>423</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>619</v>
+        <v>535</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>620</v>
+        <v>536</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>621</v>
+        <v>537</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>622</v>
+        <v>538</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>623</v>
+        <v>539</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>624</v>
+        <v>540</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>625</v>
+        <v>541</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>626</v>
+        <v>542</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>627</v>
+        <v>422</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>628</v>
+        <v>543</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>629</v>
+        <v>544</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>630</v>
+        <v>545</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>631</v>
+        <v>216</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>636</v>
+        <v>419</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>637</v>
+        <v>550</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>639</v>
+        <v>552</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>640</v>
+        <v>553</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>642</v>
+        <v>555</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>516</v>
+        <v>316</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>643</v>
+        <v>556</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>644</v>
+        <v>557</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>646</v>
+        <v>559</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>647</v>
+        <v>340</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>649</v>
+        <v>562</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>651</v>
+        <v>564</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>291</v>
+        <v>565</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>652</v>
+        <v>566</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>653</v>
+        <v>567</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>655</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>3</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>4</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>2</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>5</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>15</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>17</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>28</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>34</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>45</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>46</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>41</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>42</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>43</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>60</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>59</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>68</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>67</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>69</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>71</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>72</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>73</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>74</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>75</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>76</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>75</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>77</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>23</v>
+        <v>644</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>24</v>
+        <v>645</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>25</v>
+        <v>646</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>26</v>
+        <v>647</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>78</v>
+        <v>648</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>27</v>
+        <v>518</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>29</v>
+        <v>650</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>79</v>
+        <v>651</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>80</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>51</v>
+        <v>652</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>81</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>116</v>
+        <v>653</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>82</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>117</v>
+        <v>654</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>83</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" t="s">
-        <v>84</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>119</v>
+        <v>655</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>85</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>12</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>90</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>38</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>39</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>37</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>91</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>90</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>39</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>95</v>
-      </c>
-      <c r="B680" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>97</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>98</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B686" s="1" t="s">
-        <v>133</v>
+      <c r="A686" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>100</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>103</v>
-      </c>
-      <c r="B693" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A697" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>106</v>
-      </c>
-      <c r="B699" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>60</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>59</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>68</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>67</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>69</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>71</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>72</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>73</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>74</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>75</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>76</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>75</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>77</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>80</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>81</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>82</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>83</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>84</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>85</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>87</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>12</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>89</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>90</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>38</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>39</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>37</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>91</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>90</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>37</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>39</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>94</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>95</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>97</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>98</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B781" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>100</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>103</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>104</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>41</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B741" s="2"/>
+      <c r="B794" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B836" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/WangLu-807.xlsx
+++ b/WangLu-807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB937F-5B51-4824-8B61-BA94426786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB9364-106A-4214-8786-F6F1166A946C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="0" windowWidth="11670" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="10725" yWindow="0" windowWidth="11835" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="739">
   <si>
     <t>住宿类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2672,6 +2672,314 @@
   </si>
   <si>
     <t>linguistics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physiology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychologist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological patients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psycholinguistics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mining</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mining industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine arts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">science </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of Arts and Sciences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geography</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographic location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photojournalism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astrology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern languages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern Languages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied mathematics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>respect the local environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmentally-friendly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in chemistry lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeological</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountancy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biologist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microbiology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3060,3669 +3368,3888 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
   <dimension ref="A1:D836"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="C6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>675</v>
+      </c>
+      <c r="C20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>677</v>
+      </c>
+      <c r="C22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>678</v>
+      </c>
+      <c r="C23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>680</v>
+      </c>
+      <c r="C25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>681</v>
+      </c>
+      <c r="C26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>682</v>
+      </c>
+      <c r="C27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>683</v>
+      </c>
+      <c r="C28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>684</v>
+      </c>
+      <c r="C29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>685</v>
+      </c>
+      <c r="C30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>688</v>
+      </c>
+      <c r="C33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>690</v>
+      </c>
+      <c r="C35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>692</v>
+      </c>
+      <c r="C37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>696</v>
+      </c>
+      <c r="C41" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>697</v>
+      </c>
+      <c r="C42" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>698</v>
+      </c>
+      <c r="C43" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>699</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>701</v>
+      </c>
+      <c r="C45" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>702</v>
+      </c>
+      <c r="C46" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>704</v>
+      </c>
+      <c r="C48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>706</v>
+      </c>
+      <c r="C50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>707</v>
+      </c>
+      <c r="C51" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>708</v>
+      </c>
+      <c r="C52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>709</v>
+      </c>
+      <c r="C53" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>710</v>
+      </c>
+      <c r="C54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>711</v>
+      </c>
+      <c r="C55" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>712</v>
+      </c>
+      <c r="C56" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>713</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>714</v>
+      </c>
+      <c r="C58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>715</v>
+      </c>
+      <c r="C59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>717</v>
+      </c>
+      <c r="C61" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>718</v>
+      </c>
+      <c r="C62" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>719</v>
+      </c>
+      <c r="C63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>720</v>
+      </c>
+      <c r="C64" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>721</v>
+      </c>
+      <c r="C65" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>722</v>
+      </c>
+      <c r="C66" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>723</v>
+      </c>
+      <c r="C67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>724</v>
+      </c>
+      <c r="C68" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>726</v>
+      </c>
+      <c r="C70" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>728</v>
+      </c>
+      <c r="C72" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>729</v>
+      </c>
+      <c r="C73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>730</v>
+      </c>
+      <c r="C74" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>731</v>
+      </c>
+      <c r="C75" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>732</v>
+      </c>
+      <c r="C76" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>733</v>
+      </c>
+      <c r="C77" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>734</v>
+      </c>
+      <c r="C78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>735</v>
+      </c>
+      <c r="C79" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>736</v>
+      </c>
+      <c r="C80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>737</v>
+      </c>
+      <c r="C81" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>738</v>
+      </c>
+      <c r="C82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C407" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C411" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C412" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C413" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" t="s">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C433" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C434" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C435" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C437" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" t="s">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C440" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C441" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C442" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C443" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C444" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C445" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C446" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C447" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C448" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C449" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" t="s">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C450" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C451" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C452" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C453" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C454" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C455" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C456" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C457" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C459" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C460" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C461" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C462" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C463" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C464" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C465" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" t="s">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C466" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" t="s">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C467" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" t="s">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C468" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" t="s">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C469" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" t="s">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C470" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" t="s">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C471" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" t="s">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C472" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" t="s">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C473" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" t="s">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C474" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" t="s">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C475" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" t="s">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C476" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" t="s">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C477" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" t="s">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C478" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" t="s">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C479" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" t="s">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C480" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C482" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C483" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C484" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C485" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C486" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C487" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C488" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" t="s">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C489" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C490" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C491" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" t="s">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C492" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C493" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C494" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" t="s">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C495" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C496" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" t="s">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C497" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C498" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" t="s">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C499" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" t="s">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C500" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" t="s">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C501" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" t="s">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C502" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C503" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" t="s">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C504" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C505" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C506" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" t="s">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C507" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" t="s">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C508" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C509" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" t="s">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C510" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" t="s">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C511" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" t="s">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C512" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" t="s">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C513" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" t="s">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C514" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" t="s">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C515" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" t="s">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C516" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" t="s">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C517" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" t="s">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C518" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" t="s">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C519" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" t="s">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C520" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" t="s">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C521" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" t="s">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C522" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" t="s">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C523" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C524" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" t="s">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C525" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" t="s">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C526" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" t="s">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C527" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" t="s">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C528" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" t="s">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C529" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" t="s">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C530" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C531" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" t="s">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C532" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" t="s">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C533" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" t="s">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C534" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" t="s">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C535" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" t="s">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C536" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" t="s">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C537" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" t="s">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C538" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" t="s">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C539" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" t="s">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C540" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" t="s">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C541" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" t="s">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C542" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" t="s">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C543" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C544" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
+    <row r="545" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C545" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" t="s">
+    <row r="546" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C546" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" t="s">
+    <row r="547" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C547" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" t="s">
+    <row r="548" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C548" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" t="s">
+    <row r="549" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C549" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" t="s">
+    <row r="550" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C550" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" t="s">
+    <row r="551" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C551" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" t="s">
+    <row r="552" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C552" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" t="s">
+    <row r="553" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C553" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" t="s">
+    <row r="554" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C554" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" t="s">
+    <row r="555" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C555" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" t="s">
+    <row r="556" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C556" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" t="s">
+    <row r="558" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C558" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" t="s">
+    <row r="559" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C559" t="s">
         <v>1</v>
       </c>
-      <c r="B656" s="1" t="s">
+      <c r="D559" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" t="s">
+    <row r="560" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C560" t="s">
         <v>3</v>
       </c>
-      <c r="B657" s="1" t="s">
+      <c r="D560" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" t="s">
+    <row r="561" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C561" t="s">
         <v>4</v>
       </c>
-      <c r="B658" s="1" t="s">
+      <c r="D561" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" t="s">
+    <row r="562" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C562" t="s">
         <v>2</v>
       </c>
-      <c r="B659" s="1" t="s">
+      <c r="D562" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" t="s">
+    <row r="563" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C563" t="s">
         <v>5</v>
       </c>
-      <c r="B660" s="1" t="s">
+      <c r="D563" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" t="s">
+    <row r="564" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C564" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" t="s">
+    <row r="565" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C565" t="s">
         <v>15</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="D565" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" t="s">
+    <row r="566" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C566" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" t="s">
+    <row r="567" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C567" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" t="s">
+    <row r="568" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C568" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" t="s">
+    <row r="569" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C569" t="s">
         <v>17</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="D569" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" t="s">
+    <row r="570" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C570" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" t="s">
+    <row r="571" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C571" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" t="s">
+    <row r="572" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C572" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" t="s">
+    <row r="573" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C573" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" t="s">
+    <row r="574" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C574" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" t="s">
+    <row r="575" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C575" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" t="s">
+    <row r="576" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C576" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" t="s">
+    <row r="577" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C577" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" t="s">
+    <row r="578" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C578" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" t="s">
+    <row r="579" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C579" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" t="s">
+    <row r="580" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C580" t="s">
         <v>28</v>
       </c>
-      <c r="B677" s="1" t="s">
+      <c r="D580" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" t="s">
+    <row r="581" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C581" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" t="s">
+    <row r="582" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C582" t="s">
         <v>34</v>
       </c>
-      <c r="B679" s="1" t="s">
+      <c r="D582" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" t="s">
+    <row r="583" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C583" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" t="s">
+    <row r="584" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C584" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" t="s">
+    <row r="585" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C585" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" t="s">
+    <row r="586" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C586" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" t="s">
+    <row r="587" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C587" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" t="s">
+    <row r="588" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C588" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" t="s">
+    <row r="589" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C589" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" t="s">
+    <row r="590" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C590" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" t="s">
+    <row r="591" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C591" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689" t="s">
+    <row r="592" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C592" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690" t="s">
+    <row r="593" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C593" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691" t="s">
+    <row r="594" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C594" t="s">
         <v>45</v>
       </c>
-      <c r="B691" s="1" t="s">
+      <c r="D594" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692" t="s">
+    <row r="595" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C595" t="s">
         <v>46</v>
       </c>
-      <c r="B692" s="1" t="s">
+      <c r="D595" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693" t="s">
+    <row r="596" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C596" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A694" t="s">
+    <row r="597" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C597" t="s">
         <v>41</v>
       </c>
-      <c r="B694" s="1" t="s">
+      <c r="D597" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A695" t="s">
+    <row r="598" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C598" t="s">
         <v>42</v>
       </c>
-      <c r="B695" s="1" t="s">
+      <c r="D598" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A696" t="s">
+    <row r="599" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C599" t="s">
         <v>43</v>
       </c>
-      <c r="B696" s="1" t="s">
+      <c r="D599" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A698" t="s">
+    <row r="601" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C601" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A699" t="s">
+    <row r="602" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C602" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A700" t="s">
+    <row r="603" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C603" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A701" t="s">
+    <row r="604" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C604" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A702" t="s">
+    <row r="605" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C605" t="s">
         <v>60</v>
       </c>
-      <c r="B702" s="1" t="s">
+      <c r="D605" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A703" t="s">
+    <row r="606" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C606" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A704" t="s">
+    <row r="607" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C607" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A705" t="s">
+    <row r="608" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C608" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A706" t="s">
+    <row r="609" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C609" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A707" t="s">
+    <row r="610" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C610" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A708" t="s">
+    <row r="611" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C611" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A709" t="s">
+    <row r="612" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C612" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A710" t="s">
+    <row r="613" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C613" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A711" t="s">
+    <row r="614" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C614" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A712" t="s">
+    <row r="615" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C615" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A713" t="s">
+    <row r="616" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C616" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A714" t="s">
+    <row r="617" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C617" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A715" t="s">
+    <row r="618" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C618" t="s">
         <v>59</v>
       </c>
-      <c r="B715" s="1" t="s">
+      <c r="D618" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A716" t="s">
+    <row r="619" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C619" t="s">
         <v>68</v>
       </c>
-      <c r="B716" s="1" t="s">
+      <c r="D619" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A717" t="s">
+    <row r="620" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C620" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A718" t="s">
+    <row r="621" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C621" t="s">
         <v>67</v>
       </c>
-      <c r="B718" s="1" t="s">
+      <c r="D621" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A719" t="s">
+    <row r="622" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C622" t="s">
         <v>69</v>
       </c>
-      <c r="B719" s="1" t="s">
+      <c r="D622" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A720" t="s">
+    <row r="623" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C623" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A721" t="s">
+    <row r="624" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C624" t="s">
         <v>71</v>
       </c>
-      <c r="B721" s="1" t="s">
+      <c r="D624" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A722" t="s">
+    <row r="625" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C625" t="s">
         <v>72</v>
       </c>
-      <c r="B722" s="1" t="s">
+      <c r="D625" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A723" t="s">
+    <row r="626" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C626" t="s">
         <v>73</v>
       </c>
-      <c r="B723" s="1" t="s">
+      <c r="D626" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A724" t="s">
+    <row r="627" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C627" t="s">
         <v>74</v>
       </c>
-      <c r="B724" s="1" t="s">
+      <c r="D627" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A725" t="s">
+    <row r="628" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C628" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A726" t="s">
+    <row r="629" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C629" t="s">
         <v>75</v>
       </c>
-      <c r="B726" s="1" t="s">
+      <c r="D629" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A727" t="s">
+    <row r="630" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C630" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A728" t="s">
+    <row r="631" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C631" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A729" t="s">
+    <row r="632" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C632" t="s">
         <v>76</v>
       </c>
-      <c r="B729" s="1" t="s">
+      <c r="D632" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A730" t="s">
+    <row r="633" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C633" t="s">
         <v>75</v>
       </c>
-      <c r="B730" s="1" t="s">
+      <c r="D633" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A731" t="s">
+    <row r="634" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C634" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A732" t="s">
+    <row r="635" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C635" t="s">
         <v>77</v>
       </c>
-      <c r="B732" s="1" t="s">
+      <c r="D635" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A733" t="s">
+    <row r="636" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C636" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A734" t="s">
+    <row r="637" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C637" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A735" t="s">
+    <row r="638" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C638" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A736" t="s">
+    <row r="639" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C639" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A737" t="s">
+    <row r="640" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C640" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A738" t="s">
+    <row r="641" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C641" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A739" t="s">
+    <row r="642" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C642" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A740" t="s">
+    <row r="643" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C643" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A741" t="s">
+    <row r="644" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C644" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A742" t="s">
+    <row r="645" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C645" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A743" t="s">
+    <row r="646" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C646" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A744" t="s">
+    <row r="647" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C647" t="s">
         <v>80</v>
       </c>
-      <c r="B744" s="1" t="s">
+      <c r="D647" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A745" t="s">
+    <row r="648" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C648" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A746" t="s">
+    <row r="649" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C649" t="s">
         <v>81</v>
       </c>
-      <c r="B746" s="1" t="s">
+      <c r="D649" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A747" t="s">
+    <row r="650" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C650" t="s">
         <v>82</v>
       </c>
-      <c r="B747" s="1" t="s">
+      <c r="D650" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A748" t="s">
+    <row r="651" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C651" t="s">
         <v>83</v>
       </c>
-      <c r="B748" s="1" t="s">
+      <c r="D651" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A749" t="s">
+    <row r="652" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C652" t="s">
         <v>84</v>
       </c>
-      <c r="B749" s="1" t="s">
+      <c r="D652" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A750" t="s">
+    <row r="653" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C653" t="s">
         <v>85</v>
       </c>
-      <c r="B750" s="1" t="s">
+      <c r="D653" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A751" t="s">
+    <row r="654" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C654" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A752" t="s">
+    <row r="655" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C655" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A753" t="s">
+    <row r="656" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C656" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A754" t="s">
+    <row r="657" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C657" t="s">
         <v>87</v>
       </c>
-      <c r="B754" s="1" t="s">
+      <c r="D657" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A755" t="s">
+    <row r="658" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C658" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A756" t="s">
+    <row r="659" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C659" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A757" t="s">
+    <row r="660" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C660" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A758" t="s">
+    <row r="661" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C661" t="s">
         <v>12</v>
       </c>
-      <c r="B758" s="1" t="s">
+      <c r="D661" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A759" t="s">
+    <row r="662" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C662" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A760" t="s">
+    <row r="663" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C663" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A761" t="s">
+    <row r="664" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C664" t="s">
         <v>89</v>
       </c>
-      <c r="B761" s="1" t="s">
+      <c r="D664" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A762" t="s">
+    <row r="665" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C665" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A763" t="s">
+    <row r="666" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C666" t="s">
         <v>90</v>
       </c>
-      <c r="B763" s="1" t="s">
+      <c r="D666" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A764" t="s">
+    <row r="667" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C667" t="s">
         <v>38</v>
       </c>
-      <c r="B764" s="1" t="s">
+      <c r="D667" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A765" t="s">
+    <row r="668" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C668" t="s">
         <v>39</v>
       </c>
-      <c r="B765" s="1" t="s">
+      <c r="D668" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A766" t="s">
+    <row r="669" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C669" t="s">
         <v>37</v>
       </c>
-      <c r="B766" s="1" t="s">
+      <c r="D669" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767" t="s">
+    <row r="670" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C670" t="s">
         <v>91</v>
       </c>
-      <c r="B767" s="1" t="s">
+      <c r="D670" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768" t="s">
+    <row r="671" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C671" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A769" t="s">
+    <row r="672" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C672" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A770" t="s">
+    <row r="673" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C673" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A771" t="s">
+    <row r="674" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C674" t="s">
         <v>90</v>
       </c>
-      <c r="B771" s="1" t="s">
+      <c r="D674" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A772" t="s">
+    <row r="675" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C675" t="s">
         <v>37</v>
       </c>
-      <c r="B772" s="1" t="s">
+      <c r="D675" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A773" t="s">
+    <row r="676" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C676" t="s">
         <v>39</v>
       </c>
-      <c r="B773" s="1" t="s">
+      <c r="D676" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A774" t="s">
+    <row r="677" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C677" t="s">
         <v>94</v>
       </c>
-      <c r="B774" s="1" t="s">
+      <c r="D677" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A775" t="s">
+    <row r="678" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C678" t="s">
         <v>95</v>
       </c>
-      <c r="B775" s="1" t="s">
+      <c r="D678" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A776" t="s">
+    <row r="679" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C679" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A777" t="s">
+    <row r="680" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C680" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A778" t="s">
+    <row r="681" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C681" t="s">
         <v>97</v>
       </c>
-      <c r="B778" s="1" t="s">
+      <c r="D681" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A779" t="s">
+    <row r="682" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C682" t="s">
         <v>98</v>
       </c>
-      <c r="B779" s="1" t="s">
+      <c r="D682" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A780" t="s">
+    <row r="683" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C683" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B781" s="1" t="s">
+    <row r="684" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D684" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A782" t="s">
+    <row r="685" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C685" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A783" t="s">
+    <row r="686" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C686" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A784" t="s">
+    <row r="687" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C687" t="s">
         <v>100</v>
       </c>
-      <c r="B784" s="1" t="s">
+      <c r="D687" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A785" t="s">
+    <row r="688" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C688" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A786" t="s">
+    <row r="689" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C689" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A787" t="s">
+    <row r="690" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C690" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A788" t="s">
+    <row r="691" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C691" t="s">
         <v>103</v>
       </c>
-      <c r="B788" s="1" t="s">
+      <c r="D691" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A789" t="s">
+    <row r="692" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C692" t="s">
         <v>104</v>
       </c>
-      <c r="B789" s="1" t="s">
+      <c r="D692" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A790" t="s">
+    <row r="693" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C693" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A791" t="s">
+    <row r="694" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C694" t="s">
         <v>41</v>
       </c>
-      <c r="B791" s="1" t="s">
+      <c r="D694" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A792" t="s">
+    <row r="695" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C695" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A793" t="s">
+    <row r="696" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C696" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A794" t="s">
+    <row r="697" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C697" t="s">
         <v>106</v>
       </c>
-      <c r="B794" s="1" t="s">
+      <c r="D697" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A795" t="s">
+    <row r="698" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C698" t="s">
         <v>106</v>
       </c>
     </row>

--- a/WangLu-807.xlsx
+++ b/WangLu-807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB9364-106A-4214-8786-F6F1166A946C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F0FAFB-4A4F-467D-8272-42292E29A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="0" windowWidth="11835" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="10890" yWindow="0" windowWidth="10095" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="795">
   <si>
     <t>住宿类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2980,6 +2980,230 @@
   </si>
   <si>
     <t>banking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrollment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrollment fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculum vitea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra-curriculum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end of term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>half term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trimester</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>courses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligatory course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>required course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresher course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialized course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced English Studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study aids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asian studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriental studies</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3368,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
   <dimension ref="A1:D836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4045,306 +4269,483 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>739</v>
+      </c>
       <c r="C84" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>740</v>
+      </c>
       <c r="C85" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>741</v>
+      </c>
       <c r="C86" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>742</v>
+      </c>
       <c r="C87" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>743</v>
+      </c>
       <c r="C88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>744</v>
+      </c>
       <c r="C89" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>745</v>
+      </c>
       <c r="C90" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>746</v>
+      </c>
       <c r="C91" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>747</v>
+      </c>
       <c r="C92" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>748</v>
+      </c>
       <c r="C93" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>749</v>
+      </c>
       <c r="C94" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>750</v>
+      </c>
       <c r="C95" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>751</v>
+      </c>
       <c r="C96" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>751</v>
+      </c>
       <c r="C97" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>752</v>
+      </c>
       <c r="C98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>753</v>
+      </c>
       <c r="C99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>750</v>
+      </c>
       <c r="C100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>754</v>
+      </c>
       <c r="C101" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>755</v>
+      </c>
       <c r="C102" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>756</v>
+      </c>
       <c r="C103" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>757</v>
+      </c>
       <c r="C104" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>755</v>
+      </c>
       <c r="C105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>758</v>
+      </c>
       <c r="C106" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>759</v>
+      </c>
       <c r="C107" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>760</v>
+      </c>
       <c r="C108" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>761</v>
+      </c>
       <c r="C109" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>762</v>
+      </c>
       <c r="C110" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>763</v>
+      </c>
       <c r="C111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>764</v>
+      </c>
       <c r="C112" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>765</v>
+      </c>
       <c r="C113" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>766</v>
+      </c>
       <c r="C114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>767</v>
+      </c>
       <c r="C115" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>768</v>
+      </c>
       <c r="C116" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>769</v>
+      </c>
       <c r="C117" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>770</v>
+      </c>
       <c r="C118" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>771</v>
+      </c>
       <c r="C119" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>772</v>
+      </c>
       <c r="C120" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>773</v>
+      </c>
       <c r="C121" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>774</v>
+      </c>
       <c r="C122" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>775</v>
+      </c>
       <c r="C123" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>776</v>
+      </c>
       <c r="C124" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>777</v>
+      </c>
       <c r="C125" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>778</v>
+      </c>
       <c r="C126" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>779</v>
+      </c>
       <c r="C127" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>780</v>
+      </c>
       <c r="C128" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>781</v>
+      </c>
       <c r="C129" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>782</v>
+      </c>
       <c r="C130" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>783</v>
+      </c>
       <c r="C131" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>784</v>
+      </c>
       <c r="C132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>785</v>
+      </c>
       <c r="C133" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>786</v>
+      </c>
       <c r="C134" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>787</v>
+      </c>
       <c r="C135" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>788</v>
+      </c>
       <c r="C136" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>789</v>
+      </c>
       <c r="C137" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>790</v>
+      </c>
       <c r="C138" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>791</v>
+      </c>
       <c r="C139" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>792</v>
+      </c>
       <c r="C140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>793</v>
+      </c>
       <c r="C141" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>794</v>
+      </c>
       <c r="C142" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>273</v>
       </c>
